--- a/bin/Debug/NOVOSIBIRSK.xlsx
+++ b/bin/Debug/NOVOSIBIRSK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manga\source\repos\ConsoleApp\WeatherMonitoring\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A886FB-F2A3-45D5-B071-13087F2259B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12900027-83F2-4C86-A4AB-11233CDE2FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2039,12 +2039,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2406,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6479223-62BB-472E-A50C-ACAA361E8676}">
   <dimension ref="A1:I336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="B160" workbookViewId="0">
+      <selection activeCell="J160" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2468,10 +2465,10 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2497,10 +2494,10 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -2526,10 +2523,10 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2555,10 +2552,10 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2584,10 +2581,10 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2613,10 +2610,10 @@
       <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3">
-        <v>4</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -2642,10 +2639,10 @@
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -2671,10 +2668,10 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="3">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -2700,10 +2697,10 @@
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="3">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
         <v>2</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -2729,10 +2726,10 @@
       <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="3">
-        <v>4</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
         <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -2758,10 +2755,10 @@
       <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -2787,10 +2784,10 @@
       <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -2816,10 +2813,10 @@
       <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="3">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -2845,10 +2842,10 @@
       <c r="E15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -2874,10 +2871,10 @@
       <c r="E16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
         <v>2</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -2903,10 +2900,10 @@
       <c r="E17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="3">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -2932,10 +2929,10 @@
       <c r="E18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -2961,10 +2958,10 @@
       <c r="E19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="3">
-        <v>4</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -2990,10 +2987,10 @@
       <c r="E20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="3">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2">
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -3019,10 +3016,10 @@
       <c r="E21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="3">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2">
         <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -3048,10 +3045,10 @@
       <c r="E22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="3">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -3077,10 +3074,10 @@
       <c r="E23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="3">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -3106,10 +3103,10 @@
       <c r="E24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="3">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2">
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -3135,10 +3132,10 @@
       <c r="E25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="3">
-        <v>4</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -3164,10 +3161,10 @@
       <c r="E26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="3">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -3193,10 +3190,10 @@
       <c r="E27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="3">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -3222,10 +3219,10 @@
       <c r="E28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="3">
-        <v>4</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2">
         <v>0</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -3251,10 +3248,10 @@
       <c r="E29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="3">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -3280,10 +3277,10 @@
       <c r="E30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="3">
-        <v>4</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="2">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2">
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -3309,10 +3306,10 @@
       <c r="E31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="3">
-        <v>3</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2">
         <v>0</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -3338,10 +3335,10 @@
       <c r="E32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="3">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -3367,10 +3364,10 @@
       <c r="E33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="3">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="2">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2">
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -3396,10 +3393,10 @@
       <c r="E34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="3">
-        <v>3</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="2">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2">
         <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -3425,10 +3422,10 @@
       <c r="E35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="3">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="2">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2">
         <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -3454,10 +3451,10 @@
       <c r="E36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="3">
-        <v>3</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -3483,10 +3480,10 @@
       <c r="E37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="3">
-        <v>4</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F37" s="2">
+        <v>4</v>
+      </c>
+      <c r="G37" s="2">
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -3512,10 +3509,10 @@
       <c r="E38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F38" s="3">
-        <v>4</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F38" s="2">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
@@ -3541,10 +3538,10 @@
       <c r="E39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="3">
-        <v>4</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="F39" s="2">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2">
         <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
@@ -3570,10 +3567,10 @@
       <c r="E40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F40" s="3">
-        <v>4</v>
-      </c>
-      <c r="G40" s="3">
+      <c r="F40" s="2">
+        <v>4</v>
+      </c>
+      <c r="G40" s="2">
         <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -3599,10 +3596,10 @@
       <c r="E41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="3">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="F41" s="2">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2">
         <v>1</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -3628,10 +3625,10 @@
       <c r="E42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="3">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="F42" s="2">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
         <v>0</v>
       </c>
       <c r="H42" s="2" t="s">
@@ -3657,10 +3654,10 @@
       <c r="E43" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F43" s="3">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
+      <c r="G43" s="2">
         <v>1</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -3686,10 +3683,10 @@
       <c r="E44" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="3">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="F44" s="2">
+        <v>4</v>
+      </c>
+      <c r="G44" s="2">
         <v>1</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -3715,10 +3712,10 @@
       <c r="E45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F45" s="3">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="F45" s="2">
+        <v>4</v>
+      </c>
+      <c r="G45" s="2">
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -3744,10 +3741,10 @@
       <c r="E46" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F46" s="3">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="F46" s="2">
+        <v>4</v>
+      </c>
+      <c r="G46" s="2">
         <v>1</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -3773,10 +3770,10 @@
       <c r="E47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="3">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="F47" s="2">
+        <v>3</v>
+      </c>
+      <c r="G47" s="2">
         <v>1</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -3802,10 +3799,10 @@
       <c r="E48" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="3">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="F48" s="2">
+        <v>4</v>
+      </c>
+      <c r="G48" s="2">
         <v>1</v>
       </c>
       <c r="H48" s="2" t="s">
@@ -3831,10 +3828,10 @@
       <c r="E49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>1</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -3860,10 +3857,10 @@
       <c r="E50" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>5</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>1</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -3889,10 +3886,10 @@
       <c r="E51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F51" s="3">
-        <v>4</v>
-      </c>
-      <c r="G51" s="3">
+      <c r="F51" s="2">
+        <v>4</v>
+      </c>
+      <c r="G51" s="2">
         <v>0</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -3918,10 +3915,10 @@
       <c r="E52" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F52" s="3">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="F52" s="2">
+        <v>3</v>
+      </c>
+      <c r="G52" s="2">
         <v>1</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -3947,10 +3944,10 @@
       <c r="E53" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F53" s="3">
-        <v>4</v>
-      </c>
-      <c r="G53" s="3">
+      <c r="F53" s="2">
+        <v>4</v>
+      </c>
+      <c r="G53" s="2">
         <v>1</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -3976,10 +3973,10 @@
       <c r="E54" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="3">
-        <v>4</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="F54" s="2">
+        <v>4</v>
+      </c>
+      <c r="G54" s="2">
         <v>1</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -4005,10 +4002,10 @@
       <c r="E55" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F55" s="3">
-        <v>4</v>
-      </c>
-      <c r="G55" s="3">
+      <c r="F55" s="2">
+        <v>4</v>
+      </c>
+      <c r="G55" s="2">
         <v>0</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -4034,10 +4031,10 @@
       <c r="E56" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="3">
-        <v>4</v>
-      </c>
-      <c r="G56" s="3">
+      <c r="F56" s="2">
+        <v>4</v>
+      </c>
+      <c r="G56" s="2">
         <v>0</v>
       </c>
       <c r="H56" s="2" t="s">
@@ -4063,10 +4060,10 @@
       <c r="E57" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F57" s="3">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="F57" s="2">
+        <v>4</v>
+      </c>
+      <c r="G57" s="2">
         <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
@@ -4092,10 +4089,10 @@
       <c r="E58" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F58" s="3">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="F58" s="2">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2">
         <v>0</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -4121,10 +4118,10 @@
       <c r="E59" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F59" s="3">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="F59" s="2">
+        <v>3</v>
+      </c>
+      <c r="G59" s="2">
         <v>1</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -4150,10 +4147,10 @@
       <c r="E60" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F60" s="3">
-        <v>4</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="F60" s="2">
+        <v>4</v>
+      </c>
+      <c r="G60" s="2">
         <v>0</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -4179,10 +4176,10 @@
       <c r="E61" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F61" s="3">
-        <v>4</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="F61" s="2">
+        <v>4</v>
+      </c>
+      <c r="G61" s="2">
         <v>0</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -4208,10 +4205,10 @@
       <c r="E62" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F62" s="3">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="F62" s="2">
+        <v>4</v>
+      </c>
+      <c r="G62" s="2">
         <v>0</v>
       </c>
       <c r="H62" s="2" t="s">
@@ -4237,10 +4234,10 @@
       <c r="E63" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F63" s="3">
-        <v>4</v>
-      </c>
-      <c r="G63" s="3">
+      <c r="F63" s="2">
+        <v>4</v>
+      </c>
+      <c r="G63" s="2">
         <v>1</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -4266,10 +4263,10 @@
       <c r="E64" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F64" s="3">
-        <v>4</v>
-      </c>
-      <c r="G64" s="3">
+      <c r="F64" s="2">
+        <v>4</v>
+      </c>
+      <c r="G64" s="2">
         <v>0</v>
       </c>
       <c r="H64" s="2" t="s">
@@ -4295,10 +4292,10 @@
       <c r="E65" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F65" s="3">
-        <v>3</v>
-      </c>
-      <c r="G65" s="3">
+      <c r="F65" s="2">
+        <v>3</v>
+      </c>
+      <c r="G65" s="2">
         <v>0</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -4324,10 +4321,10 @@
       <c r="E66" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F66" s="3">
-        <v>4</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="F66" s="2">
+        <v>4</v>
+      </c>
+      <c r="G66" s="2">
         <v>0</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -4353,10 +4350,10 @@
       <c r="E67" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F67" s="3">
-        <v>4</v>
-      </c>
-      <c r="G67" s="3">
+      <c r="F67" s="2">
+        <v>4</v>
+      </c>
+      <c r="G67" s="2">
         <v>0</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -4382,10 +4379,10 @@
       <c r="E68" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F68" s="3">
-        <v>4</v>
-      </c>
-      <c r="G68" s="3">
+      <c r="F68" s="2">
+        <v>4</v>
+      </c>
+      <c r="G68" s="2">
         <v>0</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -4411,10 +4408,10 @@
       <c r="E69" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F69" s="3">
-        <v>4</v>
-      </c>
-      <c r="G69" s="3">
+      <c r="F69" s="2">
+        <v>4</v>
+      </c>
+      <c r="G69" s="2">
         <v>0</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -4440,10 +4437,10 @@
       <c r="E70" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F70" s="3">
-        <v>4</v>
-      </c>
-      <c r="G70" s="3">
+      <c r="F70" s="2">
+        <v>4</v>
+      </c>
+      <c r="G70" s="2">
         <v>1</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -4469,10 +4466,10 @@
       <c r="E71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F71" s="3">
-        <v>4</v>
-      </c>
-      <c r="G71" s="3">
+      <c r="F71" s="2">
+        <v>4</v>
+      </c>
+      <c r="G71" s="2">
         <v>1</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -4498,10 +4495,10 @@
       <c r="E72" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F72" s="3">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="F72" s="2">
+        <v>4</v>
+      </c>
+      <c r="G72" s="2">
         <v>0</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -4527,10 +4524,10 @@
       <c r="E73" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F73" s="3">
-        <v>4</v>
-      </c>
-      <c r="G73" s="3">
+      <c r="F73" s="2">
+        <v>4</v>
+      </c>
+      <c r="G73" s="2">
         <v>0</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -4556,10 +4553,10 @@
       <c r="E74" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F74" s="3">
-        <v>4</v>
-      </c>
-      <c r="G74" s="3">
+      <c r="F74" s="2">
+        <v>4</v>
+      </c>
+      <c r="G74" s="2">
         <v>0</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -4585,10 +4582,10 @@
       <c r="E75" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <v>5</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="2">
         <v>0</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -4614,10 +4611,10 @@
       <c r="E76" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F76" s="3">
-        <v>4</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="F76" s="2">
+        <v>4</v>
+      </c>
+      <c r="G76" s="2">
         <v>0</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -4643,10 +4640,10 @@
       <c r="E77" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F77" s="3">
-        <v>4</v>
-      </c>
-      <c r="G77" s="3">
+      <c r="F77" s="2">
+        <v>4</v>
+      </c>
+      <c r="G77" s="2">
         <v>0</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -4672,10 +4669,10 @@
       <c r="E78" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F78" s="3">
-        <v>4</v>
-      </c>
-      <c r="G78" s="3">
+      <c r="F78" s="2">
+        <v>4</v>
+      </c>
+      <c r="G78" s="2">
         <v>0</v>
       </c>
       <c r="H78" s="2" t="s">
@@ -4701,10 +4698,10 @@
       <c r="E79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2">
         <v>5</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="2">
         <v>0</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -4730,10 +4727,10 @@
       <c r="E80" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F80" s="3">
-        <v>4</v>
-      </c>
-      <c r="G80" s="3">
+      <c r="F80" s="2">
+        <v>4</v>
+      </c>
+      <c r="G80" s="2">
         <v>0</v>
       </c>
       <c r="H80" s="2" t="s">
@@ -4759,10 +4756,10 @@
       <c r="E81" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F81" s="3">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="F81" s="2">
+        <v>4</v>
+      </c>
+      <c r="G81" s="2">
         <v>0</v>
       </c>
       <c r="H81" s="2" t="s">
@@ -4788,10 +4785,10 @@
       <c r="E82" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F82" s="3">
-        <v>4</v>
-      </c>
-      <c r="G82" s="3">
+      <c r="F82" s="2">
+        <v>4</v>
+      </c>
+      <c r="G82" s="2">
         <v>1</v>
       </c>
       <c r="H82" s="2" t="s">
@@ -4817,10 +4814,10 @@
       <c r="E83" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F83" s="3">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="F83" s="2">
+        <v>4</v>
+      </c>
+      <c r="G83" s="2">
         <v>0</v>
       </c>
       <c r="H83" s="2" t="s">
@@ -4846,10 +4843,10 @@
       <c r="E84" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F84" s="3">
-        <v>4</v>
-      </c>
-      <c r="G84" s="3">
+      <c r="F84" s="2">
+        <v>4</v>
+      </c>
+      <c r="G84" s="2">
         <v>0</v>
       </c>
       <c r="H84" s="2" t="s">
@@ -4875,10 +4872,10 @@
       <c r="E85" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F85" s="3">
-        <v>3</v>
-      </c>
-      <c r="G85" s="3">
+      <c r="F85" s="2">
+        <v>3</v>
+      </c>
+      <c r="G85" s="2">
         <v>0</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -4904,10 +4901,10 @@
       <c r="E86" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F86" s="3">
-        <v>4</v>
-      </c>
-      <c r="G86" s="3">
+      <c r="F86" s="2">
+        <v>4</v>
+      </c>
+      <c r="G86" s="2">
         <v>0</v>
       </c>
       <c r="H86" s="2" t="s">
@@ -4933,10 +4930,10 @@
       <c r="E87" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F87" s="3">
-        <v>4</v>
-      </c>
-      <c r="G87" s="3">
+      <c r="F87" s="2">
+        <v>4</v>
+      </c>
+      <c r="G87" s="2">
         <v>1</v>
       </c>
       <c r="H87" s="2" t="s">
@@ -4962,10 +4959,10 @@
       <c r="E88" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F88" s="3">
-        <v>4</v>
-      </c>
-      <c r="G88" s="3">
+      <c r="F88" s="2">
+        <v>4</v>
+      </c>
+      <c r="G88" s="2">
         <v>0</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -4991,10 +4988,10 @@
       <c r="E89" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F89" s="3">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="F89" s="2">
+        <v>4</v>
+      </c>
+      <c r="G89" s="2">
         <v>0</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -5020,10 +5017,10 @@
       <c r="E90" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="3">
-        <v>4</v>
-      </c>
-      <c r="G90" s="3">
+      <c r="F90" s="2">
+        <v>4</v>
+      </c>
+      <c r="G90" s="2">
         <v>0</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -5049,10 +5046,10 @@
       <c r="E91" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F91" s="3">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="F91" s="2">
+        <v>4</v>
+      </c>
+      <c r="G91" s="2">
         <v>0</v>
       </c>
       <c r="H91" s="2" t="s">
@@ -5078,10 +5075,10 @@
       <c r="E92" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F92" s="3">
-        <v>4</v>
-      </c>
-      <c r="G92" s="3">
+      <c r="F92" s="2">
+        <v>4</v>
+      </c>
+      <c r="G92" s="2">
         <v>1</v>
       </c>
       <c r="H92" s="2" t="s">
@@ -5107,10 +5104,10 @@
       <c r="E93" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F93" s="3">
-        <v>4</v>
-      </c>
-      <c r="G93" s="3">
+      <c r="F93" s="2">
+        <v>4</v>
+      </c>
+      <c r="G93" s="2">
         <v>1</v>
       </c>
       <c r="H93" s="2" t="s">
@@ -5136,10 +5133,10 @@
       <c r="E94" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F94" s="3">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="F94" s="2">
+        <v>4</v>
+      </c>
+      <c r="G94" s="2">
         <v>0</v>
       </c>
       <c r="H94" s="2" t="s">
@@ -5165,10 +5162,10 @@
       <c r="E95" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F95" s="3">
-        <v>4</v>
-      </c>
-      <c r="G95" s="3">
+      <c r="F95" s="2">
+        <v>4</v>
+      </c>
+      <c r="G95" s="2">
         <v>0</v>
       </c>
       <c r="H95" s="2" t="s">
@@ -5194,10 +5191,10 @@
       <c r="E96" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F96" s="3">
-        <v>4</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="F96" s="2">
+        <v>4</v>
+      </c>
+      <c r="G96" s="2">
         <v>0</v>
       </c>
       <c r="H96" s="2" t="s">
@@ -5223,10 +5220,10 @@
       <c r="E97" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F97" s="3">
-        <v>4</v>
-      </c>
-      <c r="G97" s="3">
+      <c r="F97" s="2">
+        <v>4</v>
+      </c>
+      <c r="G97" s="2">
         <v>0</v>
       </c>
       <c r="H97" s="2" t="s">
@@ -5252,10 +5249,10 @@
       <c r="E98" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F98" s="3">
-        <v>4</v>
-      </c>
-      <c r="G98" s="3">
+      <c r="F98" s="2">
+        <v>4</v>
+      </c>
+      <c r="G98" s="2">
         <v>0</v>
       </c>
       <c r="H98" s="2" t="s">
@@ -5281,10 +5278,10 @@
       <c r="E99" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F99" s="3">
-        <v>4</v>
-      </c>
-      <c r="G99" s="3">
+      <c r="F99" s="2">
+        <v>4</v>
+      </c>
+      <c r="G99" s="2">
         <v>0</v>
       </c>
       <c r="H99" s="2" t="s">
@@ -5310,10 +5307,10 @@
       <c r="E100" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F100" s="3">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="F100" s="2">
+        <v>4</v>
+      </c>
+      <c r="G100" s="2">
         <v>1</v>
       </c>
       <c r="H100" s="2" t="s">
@@ -5339,10 +5336,10 @@
       <c r="E101" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F101" s="3">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="F101" s="2">
+        <v>4</v>
+      </c>
+      <c r="G101" s="2">
         <v>0</v>
       </c>
       <c r="H101" s="2" t="s">
@@ -5368,10 +5365,10 @@
       <c r="E102" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F102" s="3">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="F102" s="2">
+        <v>4</v>
+      </c>
+      <c r="G102" s="2">
         <v>0</v>
       </c>
       <c r="H102" s="2" t="s">
@@ -5397,10 +5394,10 @@
       <c r="E103" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F103" s="3">
-        <v>4</v>
-      </c>
-      <c r="G103" s="3">
+      <c r="F103" s="2">
+        <v>4</v>
+      </c>
+      <c r="G103" s="2">
         <v>0</v>
       </c>
       <c r="H103" s="2" t="s">
@@ -5426,10 +5423,10 @@
       <c r="E104" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F104" s="3">
-        <v>4</v>
-      </c>
-      <c r="G104" s="3">
+      <c r="F104" s="2">
+        <v>4</v>
+      </c>
+      <c r="G104" s="2">
         <v>0</v>
       </c>
       <c r="H104" s="2" t="s">
@@ -5455,10 +5452,10 @@
       <c r="E105" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F105" s="3">
-        <v>4</v>
-      </c>
-      <c r="G105" s="3">
+      <c r="F105" s="2">
+        <v>4</v>
+      </c>
+      <c r="G105" s="2">
         <v>0</v>
       </c>
       <c r="H105" s="2" t="s">
@@ -5484,10 +5481,10 @@
       <c r="E106" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F106" s="3">
-        <v>4</v>
-      </c>
-      <c r="G106" s="3">
+      <c r="F106" s="2">
+        <v>4</v>
+      </c>
+      <c r="G106" s="2">
         <v>0</v>
       </c>
       <c r="H106" s="2" t="s">
@@ -5513,10 +5510,10 @@
       <c r="E107" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F107" s="3">
-        <v>4</v>
-      </c>
-      <c r="G107" s="3">
+      <c r="F107" s="2">
+        <v>4</v>
+      </c>
+      <c r="G107" s="2">
         <v>0</v>
       </c>
       <c r="H107" s="2" t="s">
@@ -5542,10 +5539,10 @@
       <c r="E108" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F108" s="3">
-        <v>4</v>
-      </c>
-      <c r="G108" s="3">
+      <c r="F108" s="2">
+        <v>4</v>
+      </c>
+      <c r="G108" s="2">
         <v>0</v>
       </c>
       <c r="H108" s="2" t="s">
@@ -5571,10 +5568,10 @@
       <c r="E109" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F109" s="3">
-        <v>4</v>
-      </c>
-      <c r="G109" s="3">
+      <c r="F109" s="2">
+        <v>4</v>
+      </c>
+      <c r="G109" s="2">
         <v>1</v>
       </c>
       <c r="H109" s="2" t="s">
@@ -5600,10 +5597,10 @@
       <c r="E110" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F110" s="3">
-        <v>4</v>
-      </c>
-      <c r="G110" s="3">
+      <c r="F110" s="2">
+        <v>4</v>
+      </c>
+      <c r="G110" s="2">
         <v>0</v>
       </c>
       <c r="H110" s="2" t="s">
@@ -5629,10 +5626,10 @@
       <c r="E111" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F111" s="3">
-        <v>4</v>
-      </c>
-      <c r="G111" s="3">
+      <c r="F111" s="2">
+        <v>4</v>
+      </c>
+      <c r="G111" s="2">
         <v>0</v>
       </c>
       <c r="H111" s="2" t="s">
@@ -5658,10 +5655,10 @@
       <c r="E112" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F112" s="3">
-        <v>4</v>
-      </c>
-      <c r="G112" s="3">
+      <c r="F112" s="2">
+        <v>4</v>
+      </c>
+      <c r="G112" s="2">
         <v>0</v>
       </c>
       <c r="H112" s="2" t="s">
@@ -5687,10 +5684,10 @@
       <c r="E113" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F113" s="3">
-        <v>4</v>
-      </c>
-      <c r="G113" s="3">
+      <c r="F113" s="2">
+        <v>4</v>
+      </c>
+      <c r="G113" s="2">
         <v>0</v>
       </c>
       <c r="H113" s="2" t="s">
@@ -5716,10 +5713,10 @@
       <c r="E114" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F114" s="3">
-        <v>4</v>
-      </c>
-      <c r="G114" s="3">
+      <c r="F114" s="2">
+        <v>4</v>
+      </c>
+      <c r="G114" s="2">
         <v>0</v>
       </c>
       <c r="H114" s="2" t="s">
@@ -5745,10 +5742,10 @@
       <c r="E115" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F115" s="3">
-        <v>4</v>
-      </c>
-      <c r="G115" s="3">
+      <c r="F115" s="2">
+        <v>4</v>
+      </c>
+      <c r="G115" s="2">
         <v>0</v>
       </c>
       <c r="H115" s="2" t="s">
@@ -5774,10 +5771,10 @@
       <c r="E116" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F116" s="3">
-        <v>4</v>
-      </c>
-      <c r="G116" s="3">
+      <c r="F116" s="2">
+        <v>4</v>
+      </c>
+      <c r="G116" s="2">
         <v>1</v>
       </c>
       <c r="H116" s="2" t="s">
@@ -5803,10 +5800,10 @@
       <c r="E117" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F117" s="3">
-        <v>4</v>
-      </c>
-      <c r="G117" s="3">
+      <c r="F117" s="2">
+        <v>4</v>
+      </c>
+      <c r="G117" s="2">
         <v>2</v>
       </c>
       <c r="H117" s="2" t="s">
@@ -5832,10 +5829,10 @@
       <c r="E118" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="2">
         <v>5</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G118" s="2">
         <v>1</v>
       </c>
       <c r="H118" s="2" t="s">
@@ -5861,10 +5858,10 @@
       <c r="E119" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F119" s="3">
-        <v>4</v>
-      </c>
-      <c r="G119" s="3">
+      <c r="F119" s="2">
+        <v>4</v>
+      </c>
+      <c r="G119" s="2">
         <v>2</v>
       </c>
       <c r="H119" s="2" t="s">
@@ -5890,10 +5887,10 @@
       <c r="E120" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F120" s="3">
-        <v>4</v>
-      </c>
-      <c r="G120" s="3">
+      <c r="F120" s="2">
+        <v>4</v>
+      </c>
+      <c r="G120" s="2">
         <v>1</v>
       </c>
       <c r="H120" s="2" t="s">
@@ -5919,10 +5916,10 @@
       <c r="E121" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="2">
         <v>5</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121" s="2">
         <v>0</v>
       </c>
       <c r="H121" s="2" t="s">
@@ -5948,10 +5945,10 @@
       <c r="E122" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F122" s="3">
-        <v>4</v>
-      </c>
-      <c r="G122" s="3">
+      <c r="F122" s="2">
+        <v>4</v>
+      </c>
+      <c r="G122" s="2">
         <v>1</v>
       </c>
       <c r="H122" s="2" t="s">
@@ -5977,10 +5974,10 @@
       <c r="E123" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F123" s="3">
-        <v>4</v>
-      </c>
-      <c r="G123" s="3">
+      <c r="F123" s="2">
+        <v>4</v>
+      </c>
+      <c r="G123" s="2">
         <v>1</v>
       </c>
       <c r="H123" s="2" t="s">
@@ -6006,10 +6003,10 @@
       <c r="E124" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F124" s="3">
-        <v>4</v>
-      </c>
-      <c r="G124" s="3">
+      <c r="F124" s="2">
+        <v>4</v>
+      </c>
+      <c r="G124" s="2">
         <v>0</v>
       </c>
       <c r="H124" s="2" t="s">
@@ -6035,10 +6032,10 @@
       <c r="E125" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F125" s="3">
-        <v>4</v>
-      </c>
-      <c r="G125" s="3">
+      <c r="F125" s="2">
+        <v>4</v>
+      </c>
+      <c r="G125" s="2">
         <v>0</v>
       </c>
       <c r="H125" s="2" t="s">
@@ -6064,10 +6061,10 @@
       <c r="E126" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F126" s="3">
-        <v>4</v>
-      </c>
-      <c r="G126" s="3">
+      <c r="F126" s="2">
+        <v>4</v>
+      </c>
+      <c r="G126" s="2">
         <v>1</v>
       </c>
       <c r="H126" s="2" t="s">
@@ -6093,10 +6090,10 @@
       <c r="E127" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F127" s="3">
-        <v>4</v>
-      </c>
-      <c r="G127" s="3">
+      <c r="F127" s="2">
+        <v>4</v>
+      </c>
+      <c r="G127" s="2">
         <v>0</v>
       </c>
       <c r="H127" s="2" t="s">
@@ -6122,10 +6119,10 @@
       <c r="E128" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F128" s="3">
-        <v>4</v>
-      </c>
-      <c r="G128" s="3">
+      <c r="F128" s="2">
+        <v>4</v>
+      </c>
+      <c r="G128" s="2">
         <v>0</v>
       </c>
       <c r="H128" s="2" t="s">
@@ -6151,10 +6148,10 @@
       <c r="E129" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F129" s="3">
-        <v>4</v>
-      </c>
-      <c r="G129" s="3">
+      <c r="F129" s="2">
+        <v>4</v>
+      </c>
+      <c r="G129" s="2">
         <v>1</v>
       </c>
       <c r="H129" s="2" t="s">
@@ -6180,10 +6177,10 @@
       <c r="E130" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F130" s="3">
-        <v>4</v>
-      </c>
-      <c r="G130" s="3">
+      <c r="F130" s="2">
+        <v>4</v>
+      </c>
+      <c r="G130" s="2">
         <v>0</v>
       </c>
       <c r="H130" s="2" t="s">
@@ -6209,10 +6206,10 @@
       <c r="E131" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="F131" s="3">
-        <v>4</v>
-      </c>
-      <c r="G131" s="3">
+      <c r="F131" s="2">
+        <v>4</v>
+      </c>
+      <c r="G131" s="2">
         <v>0</v>
       </c>
       <c r="H131" s="2" t="s">
@@ -6238,10 +6235,10 @@
       <c r="E132" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="2">
         <v>5</v>
       </c>
-      <c r="G132" s="3">
+      <c r="G132" s="2">
         <v>1</v>
       </c>
       <c r="H132" s="2" t="s">
@@ -6267,10 +6264,10 @@
       <c r="E133" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F133" s="3">
-        <v>4</v>
-      </c>
-      <c r="G133" s="3">
+      <c r="F133" s="2">
+        <v>4</v>
+      </c>
+      <c r="G133" s="2">
         <v>0</v>
       </c>
       <c r="H133" s="2" t="s">
@@ -6296,10 +6293,10 @@
       <c r="E134" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F134" s="3">
-        <v>4</v>
-      </c>
-      <c r="G134" s="3">
+      <c r="F134" s="2">
+        <v>4</v>
+      </c>
+      <c r="G134" s="2">
         <v>1</v>
       </c>
       <c r="H134" s="2" t="s">
@@ -6325,10 +6322,10 @@
       <c r="E135" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F135" s="3">
-        <v>4</v>
-      </c>
-      <c r="G135" s="3">
+      <c r="F135" s="2">
+        <v>4</v>
+      </c>
+      <c r="G135" s="2">
         <v>1</v>
       </c>
       <c r="H135" s="2" t="s">
@@ -6354,10 +6351,10 @@
       <c r="E136" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F136" s="3">
-        <v>4</v>
-      </c>
-      <c r="G136" s="3">
+      <c r="F136" s="2">
+        <v>4</v>
+      </c>
+      <c r="G136" s="2">
         <v>1</v>
       </c>
       <c r="H136" s="2" t="s">
@@ -6383,10 +6380,10 @@
       <c r="E137" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F137" s="3">
-        <v>4</v>
-      </c>
-      <c r="G137" s="3">
+      <c r="F137" s="2">
+        <v>4</v>
+      </c>
+      <c r="G137" s="2">
         <v>1</v>
       </c>
       <c r="H137" s="2" t="s">
@@ -6412,10 +6409,10 @@
       <c r="E138" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F138" s="3">
-        <v>4</v>
-      </c>
-      <c r="G138" s="3">
+      <c r="F138" s="2">
+        <v>4</v>
+      </c>
+      <c r="G138" s="2">
         <v>0</v>
       </c>
       <c r="H138" s="2" t="s">
@@ -6441,10 +6438,10 @@
       <c r="E139" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F139" s="3">
-        <v>4</v>
-      </c>
-      <c r="G139" s="3">
+      <c r="F139" s="2">
+        <v>4</v>
+      </c>
+      <c r="G139" s="2">
         <v>1</v>
       </c>
       <c r="H139" s="2" t="s">
@@ -6470,10 +6467,10 @@
       <c r="E140" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F140" s="3">
-        <v>4</v>
-      </c>
-      <c r="G140" s="3">
+      <c r="F140" s="2">
+        <v>4</v>
+      </c>
+      <c r="G140" s="2">
         <v>1</v>
       </c>
       <c r="H140" s="2" t="s">
@@ -6499,10 +6496,10 @@
       <c r="E141" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F141" s="3">
-        <v>4</v>
-      </c>
-      <c r="G141" s="3">
+      <c r="F141" s="2">
+        <v>4</v>
+      </c>
+      <c r="G141" s="2">
         <v>1</v>
       </c>
       <c r="H141" s="2" t="s">
@@ -6528,10 +6525,10 @@
       <c r="E142" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F142" s="3">
-        <v>4</v>
-      </c>
-      <c r="G142" s="3">
+      <c r="F142" s="2">
+        <v>4</v>
+      </c>
+      <c r="G142" s="2">
         <v>1</v>
       </c>
       <c r="H142" s="2" t="s">
@@ -6557,10 +6554,10 @@
       <c r="E143" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F143" s="3">
-        <v>4</v>
-      </c>
-      <c r="G143" s="3">
+      <c r="F143" s="2">
+        <v>4</v>
+      </c>
+      <c r="G143" s="2">
         <v>0</v>
       </c>
       <c r="H143" s="2" t="s">
@@ -6586,10 +6583,10 @@
       <c r="E144" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F144" s="3">
-        <v>4</v>
-      </c>
-      <c r="G144" s="3">
+      <c r="F144" s="2">
+        <v>4</v>
+      </c>
+      <c r="G144" s="2">
         <v>0</v>
       </c>
       <c r="H144" s="2" t="s">
@@ -6615,10 +6612,10 @@
       <c r="E145" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F145" s="3">
-        <v>4</v>
-      </c>
-      <c r="G145" s="3">
+      <c r="F145" s="2">
+        <v>4</v>
+      </c>
+      <c r="G145" s="2">
         <v>0</v>
       </c>
       <c r="H145" s="2" t="s">
@@ -6644,10 +6641,10 @@
       <c r="E146" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F146" s="3">
-        <v>4</v>
-      </c>
-      <c r="G146" s="3">
+      <c r="F146" s="2">
+        <v>4</v>
+      </c>
+      <c r="G146" s="2">
         <v>0</v>
       </c>
       <c r="H146" s="2" t="s">
@@ -6673,10 +6670,10 @@
       <c r="E147" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F147" s="3">
-        <v>4</v>
-      </c>
-      <c r="G147" s="3">
+      <c r="F147" s="2">
+        <v>4</v>
+      </c>
+      <c r="G147" s="2">
         <v>0</v>
       </c>
       <c r="H147" s="2" t="s">
@@ -6702,10 +6699,10 @@
       <c r="E148" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F148" s="3">
-        <v>4</v>
-      </c>
-      <c r="G148" s="3">
+      <c r="F148" s="2">
+        <v>4</v>
+      </c>
+      <c r="G148" s="2">
         <v>5</v>
       </c>
       <c r="H148" s="2" t="s">
@@ -6731,10 +6728,10 @@
       <c r="E149" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F149" s="3">
-        <v>4</v>
-      </c>
-      <c r="G149" s="3">
+      <c r="F149" s="2">
+        <v>4</v>
+      </c>
+      <c r="G149" s="2">
         <v>0</v>
       </c>
       <c r="H149" s="2" t="s">
@@ -6760,10 +6757,10 @@
       <c r="E150" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F150" s="3">
-        <v>4</v>
-      </c>
-      <c r="G150" s="3">
+      <c r="F150" s="2">
+        <v>4</v>
+      </c>
+      <c r="G150" s="2">
         <v>0</v>
       </c>
       <c r="H150" s="2" t="s">
@@ -6789,10 +6786,10 @@
       <c r="E151" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F151" s="3">
-        <v>4</v>
-      </c>
-      <c r="G151" s="3">
+      <c r="F151" s="2">
+        <v>4</v>
+      </c>
+      <c r="G151" s="2">
         <v>1</v>
       </c>
       <c r="H151" s="2" t="s">
@@ -6818,10 +6815,10 @@
       <c r="E152" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F152" s="3">
-        <v>4</v>
-      </c>
-      <c r="G152" s="3">
+      <c r="F152" s="2">
+        <v>4</v>
+      </c>
+      <c r="G152" s="2">
         <v>0</v>
       </c>
       <c r="H152" s="2" t="s">
@@ -6847,10 +6844,10 @@
       <c r="E153" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F153" s="3">
-        <v>3</v>
-      </c>
-      <c r="G153" s="3">
+      <c r="F153" s="2">
+        <v>3</v>
+      </c>
+      <c r="G153" s="2">
         <v>2</v>
       </c>
       <c r="H153" s="2" t="s">
@@ -6876,10 +6873,10 @@
       <c r="E154" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F154" s="3">
-        <v>3</v>
-      </c>
-      <c r="G154" s="3">
+      <c r="F154" s="2">
+        <v>3</v>
+      </c>
+      <c r="G154" s="2">
         <v>0</v>
       </c>
       <c r="H154" s="2" t="s">
@@ -6905,10 +6902,10 @@
       <c r="E155" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F155" s="3">
-        <v>3</v>
-      </c>
-      <c r="G155" s="3">
+      <c r="F155" s="2">
+        <v>3</v>
+      </c>
+      <c r="G155" s="2">
         <v>1</v>
       </c>
       <c r="H155" s="2" t="s">
@@ -6934,10 +6931,10 @@
       <c r="E156" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F156" s="3">
-        <v>3</v>
-      </c>
-      <c r="G156" s="3">
+      <c r="F156" s="2">
+        <v>3</v>
+      </c>
+      <c r="G156" s="2">
         <v>1</v>
       </c>
       <c r="H156" s="2" t="s">
@@ -6963,10 +6960,10 @@
       <c r="E157" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F157" s="3">
-        <v>3</v>
-      </c>
-      <c r="G157" s="3">
+      <c r="F157" s="2">
+        <v>3</v>
+      </c>
+      <c r="G157" s="2">
         <v>2</v>
       </c>
       <c r="H157" s="2" t="s">
@@ -6992,10 +6989,10 @@
       <c r="E158" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F158" s="3">
-        <v>3</v>
-      </c>
-      <c r="G158" s="3">
+      <c r="F158" s="2">
+        <v>3</v>
+      </c>
+      <c r="G158" s="2">
         <v>1</v>
       </c>
       <c r="H158" s="2" t="s">
@@ -7021,10 +7018,10 @@
       <c r="E159" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F159" s="3">
-        <v>3</v>
-      </c>
-      <c r="G159" s="3">
+      <c r="F159" s="2">
+        <v>3</v>
+      </c>
+      <c r="G159" s="2">
         <v>0</v>
       </c>
       <c r="H159" s="2" t="s">
@@ -7050,10 +7047,10 @@
       <c r="E160" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F160" s="3">
-        <v>3</v>
-      </c>
-      <c r="G160" s="3">
+      <c r="F160" s="2">
+        <v>3</v>
+      </c>
+      <c r="G160" s="2">
         <v>1</v>
       </c>
       <c r="H160" s="2" t="s">
@@ -7079,10 +7076,10 @@
       <c r="E161" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F161" s="3">
-        <v>3</v>
-      </c>
-      <c r="G161" s="3">
+      <c r="F161" s="2">
+        <v>3</v>
+      </c>
+      <c r="G161" s="2">
         <v>2</v>
       </c>
       <c r="H161" s="2" t="s">
@@ -7108,10 +7105,10 @@
       <c r="E162" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F162" s="3">
-        <v>4</v>
-      </c>
-      <c r="G162" s="3">
+      <c r="F162" s="2">
+        <v>4</v>
+      </c>
+      <c r="G162" s="2">
         <v>2</v>
       </c>
       <c r="H162" s="2" t="s">
@@ -7137,10 +7134,10 @@
       <c r="E163" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F163" s="3">
-        <v>3</v>
-      </c>
-      <c r="G163" s="3">
+      <c r="F163" s="2">
+        <v>3</v>
+      </c>
+      <c r="G163" s="2">
         <v>1</v>
       </c>
       <c r="H163" s="2" t="s">
@@ -7166,10 +7163,10 @@
       <c r="E164" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F164" s="3">
-        <v>3</v>
-      </c>
-      <c r="G164" s="3">
+      <c r="F164" s="2">
+        <v>3</v>
+      </c>
+      <c r="G164" s="2">
         <v>2</v>
       </c>
       <c r="H164" s="2" t="s">
@@ -7195,10 +7192,10 @@
       <c r="E165" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F165" s="3">
-        <v>3</v>
-      </c>
-      <c r="G165" s="3">
+      <c r="F165" s="2">
+        <v>3</v>
+      </c>
+      <c r="G165" s="2">
         <v>2</v>
       </c>
       <c r="H165" s="2" t="s">
@@ -7224,10 +7221,10 @@
       <c r="E166" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F166" s="3">
-        <v>3</v>
-      </c>
-      <c r="G166" s="3">
+      <c r="F166" s="2">
+        <v>3</v>
+      </c>
+      <c r="G166" s="2">
         <v>2</v>
       </c>
       <c r="H166" s="2" t="s">
@@ -7253,10 +7250,10 @@
       <c r="E167" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="F167" s="3">
-        <v>3</v>
-      </c>
-      <c r="G167" s="3">
+      <c r="F167" s="2">
+        <v>3</v>
+      </c>
+      <c r="G167" s="2">
         <v>1</v>
       </c>
       <c r="H167" s="2" t="s">
@@ -7282,10 +7279,10 @@
       <c r="E168" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F168" s="3">
-        <v>3</v>
-      </c>
-      <c r="G168" s="3">
+      <c r="F168" s="2">
+        <v>3</v>
+      </c>
+      <c r="G168" s="2">
         <v>3</v>
       </c>
       <c r="H168" s="2" t="s">
@@ -7311,10 +7308,10 @@
       <c r="E169" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F169" s="3">
-        <v>3</v>
-      </c>
-      <c r="G169" s="3">
+      <c r="F169" s="2">
+        <v>3</v>
+      </c>
+      <c r="G169" s="2">
         <v>1</v>
       </c>
       <c r="H169" s="2" t="s">
@@ -7340,10 +7337,10 @@
       <c r="E170" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F170" s="3">
-        <v>3</v>
-      </c>
-      <c r="G170" s="3">
+      <c r="F170" s="2">
+        <v>3</v>
+      </c>
+      <c r="G170" s="2">
         <v>1</v>
       </c>
       <c r="H170" s="2" t="s">
@@ -7369,10 +7366,10 @@
       <c r="E171" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F171" s="3">
-        <v>3</v>
-      </c>
-      <c r="G171" s="3">
+      <c r="F171" s="2">
+        <v>3</v>
+      </c>
+      <c r="G171" s="2">
         <v>0</v>
       </c>
       <c r="H171" s="2" t="s">
@@ -7398,10 +7395,10 @@
       <c r="E172" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F172" s="3">
-        <v>3</v>
-      </c>
-      <c r="G172" s="3">
+      <c r="F172" s="2">
+        <v>3</v>
+      </c>
+      <c r="G172" s="2">
         <v>0</v>
       </c>
       <c r="H172" s="2" t="s">
@@ -7427,10 +7424,10 @@
       <c r="E173" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F173" s="3">
-        <v>3</v>
-      </c>
-      <c r="G173" s="3">
+      <c r="F173" s="2">
+        <v>3</v>
+      </c>
+      <c r="G173" s="2">
         <v>1</v>
       </c>
       <c r="H173" s="2" t="s">
@@ -7456,10 +7453,10 @@
       <c r="E174" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F174" s="3">
-        <v>3</v>
-      </c>
-      <c r="G174" s="3">
+      <c r="F174" s="2">
+        <v>3</v>
+      </c>
+      <c r="G174" s="2">
         <v>0</v>
       </c>
       <c r="H174" s="2" t="s">
@@ -7485,10 +7482,10 @@
       <c r="E175" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F175" s="3">
-        <v>3</v>
-      </c>
-      <c r="G175" s="3">
+      <c r="F175" s="2">
+        <v>3</v>
+      </c>
+      <c r="G175" s="2">
         <v>1</v>
       </c>
       <c r="H175" s="2" t="s">
@@ -7514,10 +7511,10 @@
       <c r="E176" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F176" s="3">
-        <v>3</v>
-      </c>
-      <c r="G176" s="3">
+      <c r="F176" s="2">
+        <v>3</v>
+      </c>
+      <c r="G176" s="2">
         <v>2</v>
       </c>
       <c r="H176" s="2" t="s">
@@ -7543,10 +7540,10 @@
       <c r="E177" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F177" s="3">
-        <v>3</v>
-      </c>
-      <c r="G177" s="3">
+      <c r="F177" s="2">
+        <v>3</v>
+      </c>
+      <c r="G177" s="2">
         <v>2</v>
       </c>
       <c r="H177" s="2" t="s">
@@ -7572,10 +7569,10 @@
       <c r="E178" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="F178" s="3">
-        <v>3</v>
-      </c>
-      <c r="G178" s="3">
+      <c r="F178" s="2">
+        <v>3</v>
+      </c>
+      <c r="G178" s="2">
         <v>0</v>
       </c>
       <c r="H178" s="2" t="s">
@@ -7601,10 +7598,10 @@
       <c r="E179" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F179" s="3">
-        <v>3</v>
-      </c>
-      <c r="G179" s="3">
+      <c r="F179" s="2">
+        <v>3</v>
+      </c>
+      <c r="G179" s="2">
         <v>1</v>
       </c>
       <c r="H179" s="2" t="s">
@@ -7630,10 +7627,10 @@
       <c r="E180" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F180" s="3">
-        <v>3</v>
-      </c>
-      <c r="G180" s="3">
+      <c r="F180" s="2">
+        <v>3</v>
+      </c>
+      <c r="G180" s="2">
         <v>1</v>
       </c>
       <c r="H180" s="2" t="s">
@@ -7659,10 +7656,10 @@
       <c r="E181" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="F181" s="3">
-        <v>3</v>
-      </c>
-      <c r="G181" s="3">
+      <c r="F181" s="2">
+        <v>3</v>
+      </c>
+      <c r="G181" s="2">
         <v>2</v>
       </c>
       <c r="H181" s="2" t="s">
@@ -7688,10 +7685,10 @@
       <c r="E182" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F182" s="3">
-        <v>3</v>
-      </c>
-      <c r="G182" s="3">
+      <c r="F182" s="2">
+        <v>3</v>
+      </c>
+      <c r="G182" s="2">
         <v>3</v>
       </c>
       <c r="H182" s="2" t="s">
@@ -7717,10 +7714,10 @@
       <c r="E183" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F183" s="3">
-        <v>3</v>
-      </c>
-      <c r="G183" s="3">
+      <c r="F183" s="2">
+        <v>3</v>
+      </c>
+      <c r="G183" s="2">
         <v>1</v>
       </c>
       <c r="H183" s="2" t="s">
@@ -7746,10 +7743,10 @@
       <c r="E184" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F184" s="3">
-        <v>3</v>
-      </c>
-      <c r="G184" s="3">
+      <c r="F184" s="2">
+        <v>3</v>
+      </c>
+      <c r="G184" s="2">
         <v>1</v>
       </c>
       <c r="H184" s="2" t="s">
@@ -7775,10 +7772,10 @@
       <c r="E185" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F185" s="3">
-        <v>3</v>
-      </c>
-      <c r="G185" s="3">
+      <c r="F185" s="2">
+        <v>3</v>
+      </c>
+      <c r="G185" s="2">
         <v>1</v>
       </c>
       <c r="H185" s="2" t="s">
@@ -7804,10 +7801,10 @@
       <c r="E186" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F186" s="3">
-        <v>3</v>
-      </c>
-      <c r="G186" s="3">
+      <c r="F186" s="2">
+        <v>3</v>
+      </c>
+      <c r="G186" s="2">
         <v>0</v>
       </c>
       <c r="H186" s="2" t="s">
@@ -7833,10 +7830,10 @@
       <c r="E187" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F187" s="3">
-        <v>3</v>
-      </c>
-      <c r="G187" s="3">
+      <c r="F187" s="2">
+        <v>3</v>
+      </c>
+      <c r="G187" s="2">
         <v>1</v>
       </c>
       <c r="H187" s="2" t="s">
@@ -7862,10 +7859,10 @@
       <c r="E188" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F188" s="3">
-        <v>3</v>
-      </c>
-      <c r="G188" s="3">
+      <c r="F188" s="2">
+        <v>3</v>
+      </c>
+      <c r="G188" s="2">
         <v>1</v>
       </c>
       <c r="H188" s="2" t="s">
@@ -7891,10 +7888,10 @@
       <c r="E189" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F189" s="3">
-        <v>3</v>
-      </c>
-      <c r="G189" s="3">
+      <c r="F189" s="2">
+        <v>3</v>
+      </c>
+      <c r="G189" s="2">
         <v>1</v>
       </c>
       <c r="H189" s="2" t="s">
@@ -7920,10 +7917,10 @@
       <c r="E190" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="F190" s="3">
-        <v>3</v>
-      </c>
-      <c r="G190" s="3">
+      <c r="F190" s="2">
+        <v>3</v>
+      </c>
+      <c r="G190" s="2">
         <v>1</v>
       </c>
       <c r="H190" s="2" t="s">
@@ -7949,10 +7946,10 @@
       <c r="E191" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F191" s="3">
-        <v>3</v>
-      </c>
-      <c r="G191" s="3">
+      <c r="F191" s="2">
+        <v>3</v>
+      </c>
+      <c r="G191" s="2">
         <v>3</v>
       </c>
       <c r="H191" s="2" t="s">
@@ -7978,10 +7975,10 @@
       <c r="E192" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F192" s="3">
-        <v>3</v>
-      </c>
-      <c r="G192" s="3">
+      <c r="F192" s="2">
+        <v>3</v>
+      </c>
+      <c r="G192" s="2">
         <v>2</v>
       </c>
       <c r="H192" s="2" t="s">
@@ -8007,10 +8004,10 @@
       <c r="E193" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F193" s="3">
-        <v>3</v>
-      </c>
-      <c r="G193" s="3">
+      <c r="F193" s="2">
+        <v>3</v>
+      </c>
+      <c r="G193" s="2">
         <v>1</v>
       </c>
       <c r="H193" s="2" t="s">
@@ -8036,10 +8033,10 @@
       <c r="E194" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F194" s="3">
+      <c r="F194" s="2">
         <v>2</v>
       </c>
-      <c r="G194" s="3">
+      <c r="G194" s="2">
         <v>0</v>
       </c>
       <c r="H194" s="2" t="s">
@@ -8065,10 +8062,10 @@
       <c r="E195" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F195" s="3">
-        <v>3</v>
-      </c>
-      <c r="G195" s="3">
+      <c r="F195" s="2">
+        <v>3</v>
+      </c>
+      <c r="G195" s="2">
         <v>0</v>
       </c>
       <c r="H195" s="2" t="s">
@@ -8094,10 +8091,10 @@
       <c r="E196" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F196" s="3">
-        <v>3</v>
-      </c>
-      <c r="G196" s="3">
+      <c r="F196" s="2">
+        <v>3</v>
+      </c>
+      <c r="G196" s="2">
         <v>1</v>
       </c>
       <c r="H196" s="2" t="s">
@@ -8123,10 +8120,10 @@
       <c r="E197" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F197" s="3">
-        <v>3</v>
-      </c>
-      <c r="G197" s="3">
+      <c r="F197" s="2">
+        <v>3</v>
+      </c>
+      <c r="G197" s="2">
         <v>1</v>
       </c>
       <c r="H197" s="2" t="s">
@@ -8152,10 +8149,10 @@
       <c r="E198" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F198" s="3">
-        <v>3</v>
-      </c>
-      <c r="G198" s="3">
+      <c r="F198" s="2">
+        <v>3</v>
+      </c>
+      <c r="G198" s="2">
         <v>0</v>
       </c>
       <c r="H198" s="2" t="s">
@@ -8181,10 +8178,10 @@
       <c r="E199" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="F199" s="3">
-        <v>3</v>
-      </c>
-      <c r="G199" s="3">
+      <c r="F199" s="2">
+        <v>3</v>
+      </c>
+      <c r="G199" s="2">
         <v>1</v>
       </c>
       <c r="H199" s="2" t="s">
@@ -8210,10 +8207,10 @@
       <c r="E200" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F200" s="3">
-        <v>3</v>
-      </c>
-      <c r="G200" s="3">
+      <c r="F200" s="2">
+        <v>3</v>
+      </c>
+      <c r="G200" s="2">
         <v>0</v>
       </c>
       <c r="H200" s="2" t="s">
@@ -8239,10 +8236,10 @@
       <c r="E201" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F201" s="3">
-        <v>3</v>
-      </c>
-      <c r="G201" s="3">
+      <c r="F201" s="2">
+        <v>3</v>
+      </c>
+      <c r="G201" s="2">
         <v>1</v>
       </c>
       <c r="H201" s="2" t="s">
@@ -8268,10 +8265,10 @@
       <c r="E202" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="F202" s="3">
-        <v>3</v>
-      </c>
-      <c r="G202" s="3">
+      <c r="F202" s="2">
+        <v>3</v>
+      </c>
+      <c r="G202" s="2">
         <v>1</v>
       </c>
       <c r="H202" s="2" t="s">
@@ -8297,10 +8294,10 @@
       <c r="E203" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F203" s="3">
-        <v>3</v>
-      </c>
-      <c r="G203" s="3">
+      <c r="F203" s="2">
+        <v>3</v>
+      </c>
+      <c r="G203" s="2">
         <v>3</v>
       </c>
       <c r="H203" s="2" t="s">
@@ -8326,10 +8323,10 @@
       <c r="E204" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F204" s="3">
-        <v>3</v>
-      </c>
-      <c r="G204" s="3">
+      <c r="F204" s="2">
+        <v>3</v>
+      </c>
+      <c r="G204" s="2">
         <v>4</v>
       </c>
       <c r="H204" s="2" t="s">
@@ -8355,10 +8352,10 @@
       <c r="E205" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="F205" s="3">
-        <v>3</v>
-      </c>
-      <c r="G205" s="3">
+      <c r="F205" s="2">
+        <v>3</v>
+      </c>
+      <c r="G205" s="2">
         <v>0</v>
       </c>
       <c r="H205" s="2" t="s">
@@ -8384,10 +8381,10 @@
       <c r="E206" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F206" s="3">
-        <v>3</v>
-      </c>
-      <c r="G206" s="3">
+      <c r="F206" s="2">
+        <v>3</v>
+      </c>
+      <c r="G206" s="2">
         <v>1</v>
       </c>
       <c r="H206" s="2" t="s">
@@ -8413,10 +8410,10 @@
       <c r="E207" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F207" s="3">
-        <v>3</v>
-      </c>
-      <c r="G207" s="3">
+      <c r="F207" s="2">
+        <v>3</v>
+      </c>
+      <c r="G207" s="2">
         <v>2</v>
       </c>
       <c r="H207" s="2" t="s">
@@ -8442,10 +8439,10 @@
       <c r="E208" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F208" s="3">
-        <v>3</v>
-      </c>
-      <c r="G208" s="3">
+      <c r="F208" s="2">
+        <v>3</v>
+      </c>
+      <c r="G208" s="2">
         <v>3</v>
       </c>
       <c r="H208" s="2" t="s">
@@ -8471,10 +8468,10 @@
       <c r="E209" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="F209" s="3">
-        <v>3</v>
-      </c>
-      <c r="G209" s="3">
+      <c r="F209" s="2">
+        <v>3</v>
+      </c>
+      <c r="G209" s="2">
         <v>1</v>
       </c>
       <c r="H209" s="2" t="s">
@@ -8500,10 +8497,10 @@
       <c r="E210" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F210" s="3">
-        <v>3</v>
-      </c>
-      <c r="G210" s="3">
+      <c r="F210" s="2">
+        <v>3</v>
+      </c>
+      <c r="G210" s="2">
         <v>0</v>
       </c>
       <c r="H210" s="2" t="s">
@@ -8529,10 +8526,10 @@
       <c r="E211" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F211" s="3">
-        <v>3</v>
-      </c>
-      <c r="G211" s="3">
+      <c r="F211" s="2">
+        <v>3</v>
+      </c>
+      <c r="G211" s="2">
         <v>1</v>
       </c>
       <c r="H211" s="2" t="s">
@@ -8558,10 +8555,10 @@
       <c r="E212" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F212" s="3">
-        <v>3</v>
-      </c>
-      <c r="G212" s="3">
+      <c r="F212" s="2">
+        <v>3</v>
+      </c>
+      <c r="G212" s="2">
         <v>1</v>
       </c>
       <c r="H212" s="2" t="s">
@@ -8587,10 +8584,10 @@
       <c r="E213" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F213" s="3">
-        <v>3</v>
-      </c>
-      <c r="G213" s="3">
+      <c r="F213" s="2">
+        <v>3</v>
+      </c>
+      <c r="G213" s="2">
         <v>1</v>
       </c>
       <c r="H213" s="2" t="s">
@@ -8616,10 +8613,10 @@
       <c r="E214" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="F214" s="3">
-        <v>3</v>
-      </c>
-      <c r="G214" s="3">
+      <c r="F214" s="2">
+        <v>3</v>
+      </c>
+      <c r="G214" s="2">
         <v>0</v>
       </c>
       <c r="H214" s="2" t="s">
@@ -8645,10 +8642,10 @@
       <c r="E215" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F215" s="3">
-        <v>3</v>
-      </c>
-      <c r="G215" s="3">
+      <c r="F215" s="2">
+        <v>3</v>
+      </c>
+      <c r="G215" s="2">
         <v>0</v>
       </c>
       <c r="H215" s="2" t="s">
@@ -8674,10 +8671,10 @@
       <c r="E216" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F216" s="3">
+      <c r="F216" s="2">
         <v>2</v>
       </c>
-      <c r="G216" s="3">
+      <c r="G216" s="2">
         <v>2</v>
       </c>
       <c r="H216" s="2" t="s">
@@ -8703,10 +8700,10 @@
       <c r="E217" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F217" s="3">
-        <v>3</v>
-      </c>
-      <c r="G217" s="3">
+      <c r="F217" s="2">
+        <v>3</v>
+      </c>
+      <c r="G217" s="2">
         <v>1</v>
       </c>
       <c r="H217" s="2" t="s">
@@ -8732,10 +8729,10 @@
       <c r="E218" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F218" s="3">
-        <v>3</v>
-      </c>
-      <c r="G218" s="3">
+      <c r="F218" s="2">
+        <v>3</v>
+      </c>
+      <c r="G218" s="2">
         <v>1</v>
       </c>
       <c r="H218" s="2" t="s">
@@ -8761,10 +8758,10 @@
       <c r="E219" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F219" s="3">
-        <v>3</v>
-      </c>
-      <c r="G219" s="3">
+      <c r="F219" s="2">
+        <v>3</v>
+      </c>
+      <c r="G219" s="2">
         <v>0</v>
       </c>
       <c r="H219" s="2" t="s">
@@ -8790,10 +8787,10 @@
       <c r="E220" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F220" s="3">
-        <v>3</v>
-      </c>
-      <c r="G220" s="3">
+      <c r="F220" s="2">
+        <v>3</v>
+      </c>
+      <c r="G220" s="2">
         <v>1</v>
       </c>
       <c r="H220" s="2" t="s">
@@ -8819,10 +8816,10 @@
       <c r="E221" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="F221" s="3">
-        <v>3</v>
-      </c>
-      <c r="G221" s="3">
+      <c r="F221" s="2">
+        <v>3</v>
+      </c>
+      <c r="G221" s="2">
         <v>1</v>
       </c>
       <c r="H221" s="2" t="s">
@@ -8848,10 +8845,10 @@
       <c r="E222" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F222" s="3">
-        <v>3</v>
-      </c>
-      <c r="G222" s="3">
+      <c r="F222" s="2">
+        <v>3</v>
+      </c>
+      <c r="G222" s="2">
         <v>1</v>
       </c>
       <c r="H222" s="2" t="s">
@@ -8877,10 +8874,10 @@
       <c r="E223" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="F223" s="3">
-        <v>3</v>
-      </c>
-      <c r="G223" s="3">
+      <c r="F223" s="2">
+        <v>3</v>
+      </c>
+      <c r="G223" s="2">
         <v>2</v>
       </c>
       <c r="H223" s="2" t="s">
@@ -8906,10 +8903,10 @@
       <c r="E224" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="F224" s="3">
-        <v>3</v>
-      </c>
-      <c r="G224" s="3">
+      <c r="F224" s="2">
+        <v>3</v>
+      </c>
+      <c r="G224" s="2">
         <v>1</v>
       </c>
       <c r="H224" s="2" t="s">
@@ -8935,10 +8932,10 @@
       <c r="E225" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="F225" s="3">
-        <v>3</v>
-      </c>
-      <c r="G225" s="3">
+      <c r="F225" s="2">
+        <v>3</v>
+      </c>
+      <c r="G225" s="2">
         <v>1</v>
       </c>
       <c r="H225" s="2" t="s">
@@ -8964,10 +8961,10 @@
       <c r="E226" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="F226" s="3">
-        <v>3</v>
-      </c>
-      <c r="G226" s="3">
+      <c r="F226" s="2">
+        <v>3</v>
+      </c>
+      <c r="G226" s="2">
         <v>1</v>
       </c>
       <c r="H226" s="2" t="s">
@@ -8993,10 +8990,10 @@
       <c r="E227" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="F227" s="3">
-        <v>3</v>
-      </c>
-      <c r="G227" s="3">
+      <c r="F227" s="2">
+        <v>3</v>
+      </c>
+      <c r="G227" s="2">
         <v>0</v>
       </c>
       <c r="H227" s="2" t="s">
@@ -9022,10 +9019,10 @@
       <c r="E228" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F228" s="3">
-        <v>3</v>
-      </c>
-      <c r="G228" s="3">
+      <c r="F228" s="2">
+        <v>3</v>
+      </c>
+      <c r="G228" s="2">
         <v>0</v>
       </c>
       <c r="H228" s="2" t="s">
@@ -9051,10 +9048,10 @@
       <c r="E229" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F229" s="3">
-        <v>3</v>
-      </c>
-      <c r="G229" s="3">
+      <c r="F229" s="2">
+        <v>3</v>
+      </c>
+      <c r="G229" s="2">
         <v>0</v>
       </c>
       <c r="H229" s="2" t="s">
@@ -9080,10 +9077,10 @@
       <c r="E230" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="F230" s="3">
+      <c r="F230" s="2">
         <v>2</v>
       </c>
-      <c r="G230" s="3">
+      <c r="G230" s="2">
         <v>2</v>
       </c>
       <c r="H230" s="2" t="s">
@@ -9109,10 +9106,10 @@
       <c r="E231" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="F231" s="3">
-        <v>3</v>
-      </c>
-      <c r="G231" s="3">
+      <c r="F231" s="2">
+        <v>3</v>
+      </c>
+      <c r="G231" s="2">
         <v>1</v>
       </c>
       <c r="H231" s="2" t="s">
@@ -9138,10 +9135,10 @@
       <c r="E232" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F232" s="3">
-        <v>3</v>
-      </c>
-      <c r="G232" s="3">
+      <c r="F232" s="2">
+        <v>3</v>
+      </c>
+      <c r="G232" s="2">
         <v>1</v>
       </c>
       <c r="H232" s="2" t="s">
@@ -9167,10 +9164,10 @@
       <c r="E233" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="F233" s="3">
-        <v>3</v>
-      </c>
-      <c r="G233" s="3">
+      <c r="F233" s="2">
+        <v>3</v>
+      </c>
+      <c r="G233" s="2">
         <v>1</v>
       </c>
       <c r="H233" s="2" t="s">
@@ -9196,10 +9193,10 @@
       <c r="E234" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F234" s="3">
-        <v>3</v>
-      </c>
-      <c r="G234" s="3">
+      <c r="F234" s="2">
+        <v>3</v>
+      </c>
+      <c r="G234" s="2">
         <v>1</v>
       </c>
       <c r="H234" s="2" t="s">
@@ -9225,10 +9222,10 @@
       <c r="E235" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="F235" s="3">
-        <v>3</v>
-      </c>
-      <c r="G235" s="3">
+      <c r="F235" s="2">
+        <v>3</v>
+      </c>
+      <c r="G235" s="2">
         <v>2</v>
       </c>
       <c r="H235" s="2" t="s">
@@ -9254,10 +9251,10 @@
       <c r="E236" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="F236" s="3">
-        <v>3</v>
-      </c>
-      <c r="G236" s="3">
+      <c r="F236" s="2">
+        <v>3</v>
+      </c>
+      <c r="G236" s="2">
         <v>1</v>
       </c>
       <c r="H236" s="2" t="s">
@@ -9283,10 +9280,10 @@
       <c r="E237" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F237" s="3">
-        <v>3</v>
-      </c>
-      <c r="G237" s="3">
+      <c r="F237" s="2">
+        <v>3</v>
+      </c>
+      <c r="G237" s="2">
         <v>1</v>
       </c>
       <c r="H237" s="2" t="s">
@@ -9312,10 +9309,10 @@
       <c r="E238" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F238" s="3">
-        <v>3</v>
-      </c>
-      <c r="G238" s="3">
+      <c r="F238" s="2">
+        <v>3</v>
+      </c>
+      <c r="G238" s="2">
         <v>1</v>
       </c>
       <c r="H238" s="2" t="s">
@@ -9341,10 +9338,10 @@
       <c r="E239" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F239" s="3">
-        <v>3</v>
-      </c>
-      <c r="G239" s="3">
+      <c r="F239" s="2">
+        <v>3</v>
+      </c>
+      <c r="G239" s="2">
         <v>2</v>
       </c>
       <c r="H239" s="2" t="s">
@@ -9370,10 +9367,10 @@
       <c r="E240" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F240" s="3">
-        <v>3</v>
-      </c>
-      <c r="G240" s="3">
+      <c r="F240" s="2">
+        <v>3</v>
+      </c>
+      <c r="G240" s="2">
         <v>2</v>
       </c>
       <c r="H240" s="2" t="s">
@@ -9399,10 +9396,10 @@
       <c r="E241" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F241" s="3">
-        <v>3</v>
-      </c>
-      <c r="G241" s="3">
+      <c r="F241" s="2">
+        <v>3</v>
+      </c>
+      <c r="G241" s="2">
         <v>1</v>
       </c>
       <c r="H241" s="2" t="s">
@@ -9428,10 +9425,10 @@
       <c r="E242" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F242" s="3">
-        <v>3</v>
-      </c>
-      <c r="G242" s="3">
+      <c r="F242" s="2">
+        <v>3</v>
+      </c>
+      <c r="G242" s="2">
         <v>1</v>
       </c>
       <c r="H242" s="2" t="s">
@@ -9457,10 +9454,10 @@
       <c r="E243" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F243" s="3">
-        <v>3</v>
-      </c>
-      <c r="G243" s="3">
+      <c r="F243" s="2">
+        <v>3</v>
+      </c>
+      <c r="G243" s="2">
         <v>1</v>
       </c>
       <c r="H243" s="2" t="s">
@@ -9486,10 +9483,10 @@
       <c r="E244" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="F244" s="3">
-        <v>3</v>
-      </c>
-      <c r="G244" s="3">
+      <c r="F244" s="2">
+        <v>3</v>
+      </c>
+      <c r="G244" s="2">
         <v>2</v>
       </c>
       <c r="H244" s="2" t="s">
@@ -9515,10 +9512,10 @@
       <c r="E245" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="F245" s="3">
-        <v>3</v>
-      </c>
-      <c r="G245" s="3">
+      <c r="F245" s="2">
+        <v>3</v>
+      </c>
+      <c r="G245" s="2">
         <v>1</v>
       </c>
       <c r="H245" s="2" t="s">
@@ -9544,10 +9541,10 @@
       <c r="E246" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F246" s="3">
-        <v>3</v>
-      </c>
-      <c r="G246" s="3">
+      <c r="F246" s="2">
+        <v>3</v>
+      </c>
+      <c r="G246" s="2">
         <v>2</v>
       </c>
       <c r="H246" s="2" t="s">
@@ -9573,10 +9570,10 @@
       <c r="E247" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F247" s="3">
-        <v>3</v>
-      </c>
-      <c r="G247" s="3">
+      <c r="F247" s="2">
+        <v>3</v>
+      </c>
+      <c r="G247" s="2">
         <v>1</v>
       </c>
       <c r="H247" s="2" t="s">
@@ -9602,10 +9599,10 @@
       <c r="E248" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="F248" s="3">
-        <v>3</v>
-      </c>
-      <c r="G248" s="3">
+      <c r="F248" s="2">
+        <v>3</v>
+      </c>
+      <c r="G248" s="2">
         <v>1</v>
       </c>
       <c r="H248" s="2" t="s">
@@ -9631,10 +9628,10 @@
       <c r="E249" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F249" s="3">
-        <v>3</v>
-      </c>
-      <c r="G249" s="3">
+      <c r="F249" s="2">
+        <v>3</v>
+      </c>
+      <c r="G249" s="2">
         <v>1</v>
       </c>
       <c r="H249" s="2" t="s">
@@ -9660,10 +9657,10 @@
       <c r="E250" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F250" s="3">
-        <v>3</v>
-      </c>
-      <c r="G250" s="3">
+      <c r="F250" s="2">
+        <v>3</v>
+      </c>
+      <c r="G250" s="2">
         <v>0</v>
       </c>
       <c r="H250" s="2" t="s">
@@ -9689,10 +9686,10 @@
       <c r="E251" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F251" s="3">
-        <v>3</v>
-      </c>
-      <c r="G251" s="3">
+      <c r="F251" s="2">
+        <v>3</v>
+      </c>
+      <c r="G251" s="2">
         <v>0</v>
       </c>
       <c r="H251" s="2" t="s">
@@ -9718,10 +9715,10 @@
       <c r="E252" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F252" s="3">
-        <v>3</v>
-      </c>
-      <c r="G252" s="3">
+      <c r="F252" s="2">
+        <v>3</v>
+      </c>
+      <c r="G252" s="2">
         <v>1</v>
       </c>
       <c r="H252" s="2" t="s">
@@ -9747,10 +9744,10 @@
       <c r="E253" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F253" s="3">
-        <v>3</v>
-      </c>
-      <c r="G253" s="3">
+      <c r="F253" s="2">
+        <v>3</v>
+      </c>
+      <c r="G253" s="2">
         <v>1</v>
       </c>
       <c r="H253" s="2" t="s">
@@ -9776,10 +9773,10 @@
       <c r="E254" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F254" s="3">
-        <v>3</v>
-      </c>
-      <c r="G254" s="3">
+      <c r="F254" s="2">
+        <v>3</v>
+      </c>
+      <c r="G254" s="2">
         <v>0</v>
       </c>
       <c r="H254" s="2" t="s">
@@ -9805,10 +9802,10 @@
       <c r="E255" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F255" s="3">
-        <v>3</v>
-      </c>
-      <c r="G255" s="3">
+      <c r="F255" s="2">
+        <v>3</v>
+      </c>
+      <c r="G255" s="2">
         <v>1</v>
       </c>
       <c r="H255" s="2" t="s">
@@ -9834,10 +9831,10 @@
       <c r="E256" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F256" s="3">
-        <v>3</v>
-      </c>
-      <c r="G256" s="3">
+      <c r="F256" s="2">
+        <v>3</v>
+      </c>
+      <c r="G256" s="2">
         <v>1</v>
       </c>
       <c r="H256" s="2" t="s">
@@ -9863,10 +9860,10 @@
       <c r="E257" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F257" s="3">
-        <v>3</v>
-      </c>
-      <c r="G257" s="3">
+      <c r="F257" s="2">
+        <v>3</v>
+      </c>
+      <c r="G257" s="2">
         <v>1</v>
       </c>
       <c r="H257" s="2" t="s">
@@ -9892,10 +9889,10 @@
       <c r="E258" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F258" s="3">
-        <v>4</v>
-      </c>
-      <c r="G258" s="3">
+      <c r="F258" s="2">
+        <v>4</v>
+      </c>
+      <c r="G258" s="2">
         <v>2</v>
       </c>
       <c r="H258" s="2" t="s">
@@ -9921,10 +9918,10 @@
       <c r="E259" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="F259" s="3">
-        <v>3</v>
-      </c>
-      <c r="G259" s="3">
+      <c r="F259" s="2">
+        <v>3</v>
+      </c>
+      <c r="G259" s="2">
         <v>2</v>
       </c>
       <c r="H259" s="2" t="s">
@@ -9950,10 +9947,10 @@
       <c r="E260" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F260" s="3">
-        <v>4</v>
-      </c>
-      <c r="G260" s="3">
+      <c r="F260" s="2">
+        <v>4</v>
+      </c>
+      <c r="G260" s="2">
         <v>1</v>
       </c>
       <c r="H260" s="2" t="s">
@@ -9979,10 +9976,10 @@
       <c r="E261" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F261" s="3">
-        <v>4</v>
-      </c>
-      <c r="G261" s="3">
+      <c r="F261" s="2">
+        <v>4</v>
+      </c>
+      <c r="G261" s="2">
         <v>1</v>
       </c>
       <c r="H261" s="2" t="s">
@@ -10008,10 +10005,10 @@
       <c r="E262" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="F262" s="3">
-        <v>3</v>
-      </c>
-      <c r="G262" s="3">
+      <c r="F262" s="2">
+        <v>3</v>
+      </c>
+      <c r="G262" s="2">
         <v>1</v>
       </c>
       <c r="H262" s="2" t="s">
@@ -10037,10 +10034,10 @@
       <c r="E263" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F263" s="3">
-        <v>3</v>
-      </c>
-      <c r="G263" s="3">
+      <c r="F263" s="2">
+        <v>3</v>
+      </c>
+      <c r="G263" s="2">
         <v>1</v>
       </c>
       <c r="H263" s="2" t="s">
@@ -10066,10 +10063,10 @@
       <c r="E264" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F264" s="3">
-        <v>3</v>
-      </c>
-      <c r="G264" s="3">
+      <c r="F264" s="2">
+        <v>3</v>
+      </c>
+      <c r="G264" s="2">
         <v>1</v>
       </c>
       <c r="H264" s="2" t="s">
@@ -10095,10 +10092,10 @@
       <c r="E265" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F265" s="3">
-        <v>3</v>
-      </c>
-      <c r="G265" s="3">
+      <c r="F265" s="2">
+        <v>3</v>
+      </c>
+      <c r="G265" s="2">
         <v>1</v>
       </c>
       <c r="H265" s="2" t="s">
@@ -10124,10 +10121,10 @@
       <c r="E266" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F266" s="3">
-        <v>4</v>
-      </c>
-      <c r="G266" s="3">
+      <c r="F266" s="2">
+        <v>4</v>
+      </c>
+      <c r="G266" s="2">
         <v>2</v>
       </c>
       <c r="H266" s="2" t="s">
@@ -10153,10 +10150,10 @@
       <c r="E267" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F267" s="3">
-        <v>4</v>
-      </c>
-      <c r="G267" s="3">
+      <c r="F267" s="2">
+        <v>4</v>
+      </c>
+      <c r="G267" s="2">
         <v>0</v>
       </c>
       <c r="H267" s="2" t="s">
@@ -10182,10 +10179,10 @@
       <c r="E268" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F268" s="3">
-        <v>3</v>
-      </c>
-      <c r="G268" s="3">
+      <c r="F268" s="2">
+        <v>3</v>
+      </c>
+      <c r="G268" s="2">
         <v>1</v>
       </c>
       <c r="H268" s="2" t="s">
@@ -10211,10 +10208,10 @@
       <c r="E269" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F269" s="3">
-        <v>3</v>
-      </c>
-      <c r="G269" s="3">
+      <c r="F269" s="2">
+        <v>3</v>
+      </c>
+      <c r="G269" s="2">
         <v>1</v>
       </c>
       <c r="H269" s="2" t="s">
@@ -10240,10 +10237,10 @@
       <c r="E270" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F270" s="3">
-        <v>3</v>
-      </c>
-      <c r="G270" s="3">
+      <c r="F270" s="2">
+        <v>3</v>
+      </c>
+      <c r="G270" s="2">
         <v>1</v>
       </c>
       <c r="H270" s="2" t="s">
@@ -10269,10 +10266,10 @@
       <c r="E271" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F271" s="3">
-        <v>3</v>
-      </c>
-      <c r="G271" s="3">
+      <c r="F271" s="2">
+        <v>3</v>
+      </c>
+      <c r="G271" s="2">
         <v>1</v>
       </c>
       <c r="H271" s="2" t="s">
@@ -10298,10 +10295,10 @@
       <c r="E272" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F272" s="3">
-        <v>4</v>
-      </c>
-      <c r="G272" s="3">
+      <c r="F272" s="2">
+        <v>4</v>
+      </c>
+      <c r="G272" s="2">
         <v>1</v>
       </c>
       <c r="H272" s="2" t="s">
@@ -10327,10 +10324,10 @@
       <c r="E273" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F273" s="3">
-        <v>4</v>
-      </c>
-      <c r="G273" s="3">
+      <c r="F273" s="2">
+        <v>4</v>
+      </c>
+      <c r="G273" s="2">
         <v>1</v>
       </c>
       <c r="H273" s="2" t="s">
@@ -10356,10 +10353,10 @@
       <c r="E274" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F274" s="3">
-        <v>3</v>
-      </c>
-      <c r="G274" s="3">
+      <c r="F274" s="2">
+        <v>3</v>
+      </c>
+      <c r="G274" s="2">
         <v>0</v>
       </c>
       <c r="H274" s="2" t="s">
@@ -10385,10 +10382,10 @@
       <c r="E275" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F275" s="3">
-        <v>3</v>
-      </c>
-      <c r="G275" s="3">
+      <c r="F275" s="2">
+        <v>3</v>
+      </c>
+      <c r="G275" s="2">
         <v>1</v>
       </c>
       <c r="H275" s="2" t="s">
@@ -10414,10 +10411,10 @@
       <c r="E276" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F276" s="3">
-        <v>3</v>
-      </c>
-      <c r="G276" s="3">
+      <c r="F276" s="2">
+        <v>3</v>
+      </c>
+      <c r="G276" s="2">
         <v>0</v>
       </c>
       <c r="H276" s="2" t="s">
@@ -10443,10 +10440,10 @@
       <c r="E277" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="F277" s="3">
-        <v>4</v>
-      </c>
-      <c r="G277" s="3">
+      <c r="F277" s="2">
+        <v>4</v>
+      </c>
+      <c r="G277" s="2">
         <v>0</v>
       </c>
       <c r="H277" s="2" t="s">
@@ -10472,10 +10469,10 @@
       <c r="E278" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F278" s="3">
-        <v>3</v>
-      </c>
-      <c r="G278" s="3">
+      <c r="F278" s="2">
+        <v>3</v>
+      </c>
+      <c r="G278" s="2">
         <v>1</v>
       </c>
       <c r="H278" s="2" t="s">
@@ -10501,10 +10498,10 @@
       <c r="E279" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F279" s="3">
-        <v>3</v>
-      </c>
-      <c r="G279" s="3">
+      <c r="F279" s="2">
+        <v>3</v>
+      </c>
+      <c r="G279" s="2">
         <v>1</v>
       </c>
       <c r="H279" s="2" t="s">
@@ -10530,10 +10527,10 @@
       <c r="E280" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F280" s="3">
-        <v>4</v>
-      </c>
-      <c r="G280" s="3">
+      <c r="F280" s="2">
+        <v>4</v>
+      </c>
+      <c r="G280" s="2">
         <v>1</v>
       </c>
       <c r="H280" s="2" t="s">
@@ -10559,10 +10556,10 @@
       <c r="E281" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F281" s="3">
-        <v>4</v>
-      </c>
-      <c r="G281" s="3">
+      <c r="F281" s="2">
+        <v>4</v>
+      </c>
+      <c r="G281" s="2">
         <v>1</v>
       </c>
       <c r="H281" s="2" t="s">
@@ -10586,10 +10583,10 @@
       <c r="E282" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F282" s="3">
-        <v>4</v>
-      </c>
-      <c r="G282" s="3">
+      <c r="F282" s="2">
+        <v>4</v>
+      </c>
+      <c r="G282" s="2">
         <v>1</v>
       </c>
       <c r="H282" s="2" t="s">
@@ -10613,10 +10610,10 @@
       <c r="E283" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F283" s="3">
-        <v>4</v>
-      </c>
-      <c r="G283" s="3">
+      <c r="F283" s="2">
+        <v>4</v>
+      </c>
+      <c r="G283" s="2">
         <v>1</v>
       </c>
       <c r="H283" s="2" t="s">
@@ -10640,10 +10637,10 @@
       <c r="E284" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F284" s="3">
-        <v>4</v>
-      </c>
-      <c r="G284" s="3">
+      <c r="F284" s="2">
+        <v>4</v>
+      </c>
+      <c r="G284" s="2">
         <v>2</v>
       </c>
       <c r="H284" s="2" t="s">
@@ -10667,10 +10664,10 @@
       <c r="E285" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F285" s="3">
-        <v>4</v>
-      </c>
-      <c r="G285" s="3">
+      <c r="F285" s="2">
+        <v>4</v>
+      </c>
+      <c r="G285" s="2">
         <v>1</v>
       </c>
       <c r="H285" s="2" t="s">
@@ -10694,10 +10691,10 @@
       <c r="E286" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="F286" s="3">
-        <v>4</v>
-      </c>
-      <c r="G286" s="3">
+      <c r="F286" s="2">
+        <v>4</v>
+      </c>
+      <c r="G286" s="2">
         <v>1</v>
       </c>
       <c r="H286" s="2" t="s">
@@ -10721,10 +10718,10 @@
       <c r="E287" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="F287" s="3">
-        <v>4</v>
-      </c>
-      <c r="G287" s="3">
+      <c r="F287" s="2">
+        <v>4</v>
+      </c>
+      <c r="G287" s="2">
         <v>1</v>
       </c>
       <c r="H287" s="2" t="s">
@@ -10748,10 +10745,10 @@
       <c r="E288" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F288" s="3">
-        <v>4</v>
-      </c>
-      <c r="G288" s="3">
+      <c r="F288" s="2">
+        <v>4</v>
+      </c>
+      <c r="G288" s="2">
         <v>1</v>
       </c>
       <c r="H288" s="2" t="s">
@@ -10775,10 +10772,10 @@
       <c r="E289" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F289" s="3">
-        <v>4</v>
-      </c>
-      <c r="G289" s="3">
+      <c r="F289" s="2">
+        <v>4</v>
+      </c>
+      <c r="G289" s="2">
         <v>0</v>
       </c>
       <c r="H289" s="2" t="s">
@@ -10802,10 +10799,10 @@
       <c r="E290" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F290" s="3">
-        <v>4</v>
-      </c>
-      <c r="G290" s="3">
+      <c r="F290" s="2">
+        <v>4</v>
+      </c>
+      <c r="G290" s="2">
         <v>1</v>
       </c>
       <c r="H290" s="2" t="s">
@@ -10829,10 +10826,10 @@
       <c r="E291" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F291" s="3">
-        <v>4</v>
-      </c>
-      <c r="G291" s="3">
+      <c r="F291" s="2">
+        <v>4</v>
+      </c>
+      <c r="G291" s="2">
         <v>1</v>
       </c>
       <c r="H291" s="2" t="s">
@@ -10856,10 +10853,10 @@
       <c r="E292" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F292" s="3">
-        <v>4</v>
-      </c>
-      <c r="G292" s="3">
+      <c r="F292" s="2">
+        <v>4</v>
+      </c>
+      <c r="G292" s="2">
         <v>0</v>
       </c>
       <c r="H292" s="2" t="s">
@@ -10883,10 +10880,10 @@
       <c r="E293" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="F293" s="3">
-        <v>4</v>
-      </c>
-      <c r="G293" s="3">
+      <c r="F293" s="2">
+        <v>4</v>
+      </c>
+      <c r="G293" s="2">
         <v>1</v>
       </c>
       <c r="H293" s="2" t="s">
@@ -10910,10 +10907,10 @@
       <c r="E294" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F294" s="3">
-        <v>4</v>
-      </c>
-      <c r="G294" s="3">
+      <c r="F294" s="2">
+        <v>4</v>
+      </c>
+      <c r="G294" s="2">
         <v>1</v>
       </c>
       <c r="H294" s="2" t="s">
@@ -10937,10 +10934,10 @@
       <c r="E295" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F295" s="3">
-        <v>4</v>
-      </c>
-      <c r="G295" s="3">
+      <c r="F295" s="2">
+        <v>4</v>
+      </c>
+      <c r="G295" s="2">
         <v>1</v>
       </c>
       <c r="H295" s="2" t="s">
@@ -10964,10 +10961,10 @@
       <c r="E296" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F296" s="3">
-        <v>4</v>
-      </c>
-      <c r="G296" s="3">
+      <c r="F296" s="2">
+        <v>4</v>
+      </c>
+      <c r="G296" s="2">
         <v>1</v>
       </c>
       <c r="H296" s="2" t="s">
@@ -10991,10 +10988,10 @@
       <c r="E297" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="F297" s="3">
-        <v>4</v>
-      </c>
-      <c r="G297" s="3">
+      <c r="F297" s="2">
+        <v>4</v>
+      </c>
+      <c r="G297" s="2">
         <v>1</v>
       </c>
       <c r="H297" s="2" t="s">
@@ -11018,10 +11015,10 @@
       <c r="E298" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="F298" s="3">
-        <v>4</v>
-      </c>
-      <c r="G298" s="3">
+      <c r="F298" s="2">
+        <v>4</v>
+      </c>
+      <c r="G298" s="2">
         <v>1</v>
       </c>
       <c r="H298" s="2" t="s">
@@ -11045,10 +11042,10 @@
       <c r="E299" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F299" s="3">
-        <v>4</v>
-      </c>
-      <c r="G299" s="3">
+      <c r="F299" s="2">
+        <v>4</v>
+      </c>
+      <c r="G299" s="2">
         <v>1</v>
       </c>
       <c r="H299" s="2" t="s">
@@ -11072,10 +11069,10 @@
       <c r="E300" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F300" s="3">
-        <v>4</v>
-      </c>
-      <c r="G300" s="3">
+      <c r="F300" s="2">
+        <v>4</v>
+      </c>
+      <c r="G300" s="2">
         <v>1</v>
       </c>
       <c r="H300" s="2" t="s">
@@ -11099,10 +11096,10 @@
       <c r="E301" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F301" s="3">
-        <v>4</v>
-      </c>
-      <c r="G301" s="3">
+      <c r="F301" s="2">
+        <v>4</v>
+      </c>
+      <c r="G301" s="2">
         <v>1</v>
       </c>
       <c r="H301" s="2" t="s">
@@ -11126,10 +11123,10 @@
       <c r="E302" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F302" s="3">
-        <v>4</v>
-      </c>
-      <c r="G302" s="3">
+      <c r="F302" s="2">
+        <v>4</v>
+      </c>
+      <c r="G302" s="2">
         <v>1</v>
       </c>
       <c r="H302" s="2" t="s">
@@ -11153,10 +11150,10 @@
       <c r="E303" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F303" s="3">
-        <v>4</v>
-      </c>
-      <c r="G303" s="3">
+      <c r="F303" s="2">
+        <v>4</v>
+      </c>
+      <c r="G303" s="2">
         <v>1</v>
       </c>
       <c r="H303" s="2" t="s">
@@ -11180,10 +11177,10 @@
       <c r="E304" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="F304" s="3">
-        <v>4</v>
-      </c>
-      <c r="G304" s="3">
+      <c r="F304" s="2">
+        <v>4</v>
+      </c>
+      <c r="G304" s="2">
         <v>1</v>
       </c>
       <c r="H304" s="2" t="s">
@@ -11207,10 +11204,10 @@
       <c r="E305" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F305" s="3">
-        <v>4</v>
-      </c>
-      <c r="G305" s="3">
+      <c r="F305" s="2">
+        <v>4</v>
+      </c>
+      <c r="G305" s="2">
         <v>2</v>
       </c>
       <c r="H305" s="2" t="s">
@@ -11234,10 +11231,10 @@
       <c r="E306" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F306" s="3">
-        <v>4</v>
-      </c>
-      <c r="G306" s="3">
+      <c r="F306" s="2">
+        <v>4</v>
+      </c>
+      <c r="G306" s="2">
         <v>1</v>
       </c>
       <c r="H306" s="2" t="s">
@@ -11261,10 +11258,10 @@
       <c r="E307" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F307" s="3">
-        <v>4</v>
-      </c>
-      <c r="G307" s="3">
+      <c r="F307" s="2">
+        <v>4</v>
+      </c>
+      <c r="G307" s="2">
         <v>1</v>
       </c>
       <c r="H307" s="2" t="s">
@@ -11288,10 +11285,10 @@
       <c r="E308" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F308" s="3">
-        <v>4</v>
-      </c>
-      <c r="G308" s="3">
+      <c r="F308" s="2">
+        <v>4</v>
+      </c>
+      <c r="G308" s="2">
         <v>1</v>
       </c>
       <c r="H308" s="2" t="s">
@@ -11315,10 +11312,10 @@
       <c r="E309" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F309" s="3">
-        <v>4</v>
-      </c>
-      <c r="G309" s="3">
+      <c r="F309" s="2">
+        <v>4</v>
+      </c>
+      <c r="G309" s="2">
         <v>2</v>
       </c>
       <c r="H309" s="2" t="s">
@@ -11342,10 +11339,10 @@
       <c r="E310" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F310" s="3">
-        <v>4</v>
-      </c>
-      <c r="G310" s="3">
+      <c r="F310" s="2">
+        <v>4</v>
+      </c>
+      <c r="G310" s="2">
         <v>1</v>
       </c>
       <c r="H310" s="2" t="s">
@@ -11369,10 +11366,10 @@
       <c r="E311" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F311" s="3">
-        <v>4</v>
-      </c>
-      <c r="G311" s="3">
+      <c r="F311" s="2">
+        <v>4</v>
+      </c>
+      <c r="G311" s="2">
         <v>1</v>
       </c>
       <c r="H311" s="2" t="s">
@@ -11396,10 +11393,10 @@
       <c r="E312" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F312" s="3">
+      <c r="F312" s="2">
         <v>5</v>
       </c>
-      <c r="G312" s="3">
+      <c r="G312" s="2">
         <v>2</v>
       </c>
       <c r="H312" s="2" t="s">
@@ -11423,10 +11420,10 @@
       <c r="E313" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F313" s="3">
+      <c r="F313" s="2">
         <v>5</v>
       </c>
-      <c r="G313" s="3">
+      <c r="G313" s="2">
         <v>1</v>
       </c>
       <c r="H313" s="2" t="s">
@@ -11450,10 +11447,10 @@
       <c r="E314" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F314" s="3">
+      <c r="F314" s="2">
         <v>5</v>
       </c>
-      <c r="G314" s="3">
+      <c r="G314" s="2">
         <v>1</v>
       </c>
       <c r="H314" s="2" t="s">
@@ -11477,10 +11474,10 @@
       <c r="E315" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F315" s="3">
-        <v>4</v>
-      </c>
-      <c r="G315" s="3">
+      <c r="F315" s="2">
+        <v>4</v>
+      </c>
+      <c r="G315" s="2">
         <v>1</v>
       </c>
       <c r="H315" s="2" t="s">
@@ -11504,10 +11501,10 @@
       <c r="E316" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F316" s="3">
-        <v>4</v>
-      </c>
-      <c r="G316" s="3">
+      <c r="F316" s="2">
+        <v>4</v>
+      </c>
+      <c r="G316" s="2">
         <v>1</v>
       </c>
       <c r="H316" s="2" t="s">
@@ -11531,10 +11528,10 @@
       <c r="E317" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="F317" s="3">
-        <v>4</v>
-      </c>
-      <c r="G317" s="3">
+      <c r="F317" s="2">
+        <v>4</v>
+      </c>
+      <c r="G317" s="2">
         <v>1</v>
       </c>
       <c r="H317" s="2" t="s">
@@ -11558,10 +11555,10 @@
       <c r="E318" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F318" s="3">
-        <v>4</v>
-      </c>
-      <c r="G318" s="3">
+      <c r="F318" s="2">
+        <v>4</v>
+      </c>
+      <c r="G318" s="2">
         <v>0</v>
       </c>
       <c r="H318" s="2" t="s">
@@ -11585,10 +11582,10 @@
       <c r="E319" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F319" s="3">
-        <v>4</v>
-      </c>
-      <c r="G319" s="3">
+      <c r="F319" s="2">
+        <v>4</v>
+      </c>
+      <c r="G319" s="2">
         <v>0</v>
       </c>
       <c r="H319" s="2" t="s">
@@ -11612,10 +11609,10 @@
       <c r="E320" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="F320" s="3">
-        <v>4</v>
-      </c>
-      <c r="G320" s="3">
+      <c r="F320" s="2">
+        <v>4</v>
+      </c>
+      <c r="G320" s="2">
         <v>1</v>
       </c>
       <c r="H320" s="2" t="s">
@@ -11639,10 +11636,10 @@
       <c r="E321" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F321" s="3">
-        <v>4</v>
-      </c>
-      <c r="G321" s="3">
+      <c r="F321" s="2">
+        <v>4</v>
+      </c>
+      <c r="G321" s="2">
         <v>1</v>
       </c>
       <c r="H321" s="2" t="s">
@@ -11666,10 +11663,10 @@
       <c r="E322" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F322" s="3">
-        <v>4</v>
-      </c>
-      <c r="G322" s="3">
+      <c r="F322" s="2">
+        <v>4</v>
+      </c>
+      <c r="G322" s="2">
         <v>1</v>
       </c>
       <c r="H322" s="2" t="s">
@@ -11693,10 +11690,10 @@
       <c r="E323" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="F323" s="3">
-        <v>4</v>
-      </c>
-      <c r="G323" s="3">
+      <c r="F323" s="2">
+        <v>4</v>
+      </c>
+      <c r="G323" s="2">
         <v>1</v>
       </c>
       <c r="H323" s="2" t="s">
@@ -11720,10 +11717,10 @@
       <c r="E324" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F324" s="3">
-        <v>4</v>
-      </c>
-      <c r="G324" s="3">
+      <c r="F324" s="2">
+        <v>4</v>
+      </c>
+      <c r="G324" s="2">
         <v>1</v>
       </c>
       <c r="H324" s="2" t="s">
@@ -11747,10 +11744,10 @@
       <c r="E325" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="F325" s="3">
-        <v>4</v>
-      </c>
-      <c r="G325" s="3">
+      <c r="F325" s="2">
+        <v>4</v>
+      </c>
+      <c r="G325" s="2">
         <v>1</v>
       </c>
       <c r="H325" s="2" t="s">
@@ -11774,10 +11771,10 @@
       <c r="E326" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F326" s="3">
-        <v>4</v>
-      </c>
-      <c r="G326" s="3">
+      <c r="F326" s="2">
+        <v>4</v>
+      </c>
+      <c r="G326" s="2">
         <v>2</v>
       </c>
       <c r="H326" s="2" t="s">
@@ -11801,10 +11798,10 @@
       <c r="E327" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F327" s="3">
-        <v>4</v>
-      </c>
-      <c r="G327" s="3">
+      <c r="F327" s="2">
+        <v>4</v>
+      </c>
+      <c r="G327" s="2">
         <v>1</v>
       </c>
       <c r="H327" s="2" t="s">
@@ -11828,10 +11825,10 @@
       <c r="E328" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="F328" s="3">
-        <v>4</v>
-      </c>
-      <c r="G328" s="3">
+      <c r="F328" s="2">
+        <v>4</v>
+      </c>
+      <c r="G328" s="2">
         <v>0</v>
       </c>
       <c r="H328" s="2" t="s">
@@ -11855,10 +11852,10 @@
       <c r="E329" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F329" s="3">
-        <v>4</v>
-      </c>
-      <c r="G329" s="3">
+      <c r="F329" s="2">
+        <v>4</v>
+      </c>
+      <c r="G329" s="2">
         <v>0</v>
       </c>
       <c r="H329" s="2" t="s">
@@ -11882,10 +11879,10 @@
       <c r="E330" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="F330" s="3">
+      <c r="F330" s="2">
         <v>5</v>
       </c>
-      <c r="G330" s="3">
+      <c r="G330" s="2">
         <v>1</v>
       </c>
       <c r="H330" s="2" t="s">
@@ -11909,10 +11906,10 @@
       <c r="E331" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F331" s="3">
-        <v>4</v>
-      </c>
-      <c r="G331" s="3">
+      <c r="F331" s="2">
+        <v>4</v>
+      </c>
+      <c r="G331" s="2">
         <v>1</v>
       </c>
       <c r="H331" s="2" t="s">
@@ -11936,10 +11933,10 @@
       <c r="E332" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F332" s="3">
-        <v>4</v>
-      </c>
-      <c r="G332" s="3">
+      <c r="F332" s="2">
+        <v>4</v>
+      </c>
+      <c r="G332" s="2">
         <v>0</v>
       </c>
       <c r="H332" s="2" t="s">
@@ -11963,10 +11960,10 @@
       <c r="E333" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="F333" s="3">
-        <v>4</v>
-      </c>
-      <c r="G333" s="3">
+      <c r="F333" s="2">
+        <v>4</v>
+      </c>
+      <c r="G333" s="2">
         <v>2</v>
       </c>
       <c r="H333" s="2" t="s">
@@ -11990,10 +11987,10 @@
       <c r="E334" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="F334" s="3">
-        <v>4</v>
-      </c>
-      <c r="G334" s="3">
+      <c r="F334" s="2">
+        <v>4</v>
+      </c>
+      <c r="G334" s="2">
         <v>1</v>
       </c>
       <c r="H334" s="2" t="s">
@@ -12017,10 +12014,10 @@
       <c r="E335" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="F335" s="3">
-        <v>4</v>
-      </c>
-      <c r="G335" s="3">
+      <c r="F335" s="2">
+        <v>4</v>
+      </c>
+      <c r="G335" s="2">
         <v>1</v>
       </c>
       <c r="H335" s="2" t="s">
@@ -12044,10 +12041,10 @@
       <c r="E336" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F336" s="3">
-        <v>4</v>
-      </c>
-      <c r="G336" s="3">
+      <c r="F336" s="2">
+        <v>4</v>
+      </c>
+      <c r="G336" s="2">
         <v>1</v>
       </c>
       <c r="H336" s="2" t="s">
